--- a/Results/L/OVERVIEW.xlsx
+++ b/Results/L/OVERVIEW.xlsx
@@ -99,7 +99,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,13 +109,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -173,10 +167,10 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -505,7 +499,7 @@
     <col min="10" max="10" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -537,7 +531,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -569,7 +563,7 @@
         <v>8264.58</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -601,7 +595,7 @@
         <v>8111.62</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -633,7 +627,7 @@
         <v>6654.48</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
@@ -665,7 +659,7 @@
         <v>9212.77</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
@@ -697,7 +691,7 @@
         <v>9297.39</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
@@ -729,7 +723,7 @@
         <v>9261.14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -761,7 +755,7 @@
         <v>9596.53</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
@@ -793,7 +787,7 @@
         <v>9241.83</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
@@ -825,7 +819,7 @@
         <v>19597.47</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
@@ -857,7 +851,7 @@
         <v>17280.53</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="3" t="s">
         <v>20</v>
       </c>
@@ -889,7 +883,7 @@
         <v>13220.12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="3" t="s">
         <v>20</v>
       </c>
@@ -921,7 +915,7 @@
         <v>18497.02</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="3" t="s">
         <v>20</v>
       </c>
@@ -953,7 +947,7 @@
         <v>17858.07</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
@@ -985,7 +979,7 @@
         <v>17744.45</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
@@ -1017,7 +1011,7 @@
         <v>15753.85</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="3" t="s">
         <v>20</v>
       </c>
@@ -1049,7 +1043,7 @@
         <v>17953.97</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="3" t="s">
         <v>22</v>
       </c>
@@ -1081,7 +1075,7 @@
         <v>9452.89</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="3" t="s">
         <v>22</v>
       </c>
@@ -1113,7 +1107,7 @@
         <v>11604.5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="3" t="s">
         <v>22</v>
       </c>
@@ -1145,7 +1139,7 @@
         <v>7456.48</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="3" t="s">
         <v>22</v>
       </c>
@@ -1177,7 +1171,7 @@
         <v>10473.38</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="3" t="s">
         <v>22</v>
       </c>
@@ -1209,7 +1203,7 @@
         <v>9948.34</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
@@ -1241,7 +1235,7 @@
         <v>8403.08</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="3" t="s">
         <v>22</v>
       </c>
@@ -1273,7 +1267,7 @@
         <v>8549.56</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="3" t="s">
         <v>22</v>
       </c>
@@ -1305,7 +1299,7 @@
         <v>9692.56</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="3" t="s">
         <v>23</v>
       </c>
@@ -1337,7 +1331,7 @@
         <v>12911.34</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
       <c r="A27" s="3" t="s">
         <v>23</v>
       </c>
